--- a/download_temp/download.xlsx
+++ b/download_temp/download.xlsx
@@ -70,28 +70,70 @@
     <t>主治医师</t>
   </si>
   <si>
+    <t>王五以</t>
+  </si>
+  <si>
+    <t>13817921226</t>
+  </si>
+  <si>
+    <t>赵六的</t>
+  </si>
+  <si>
+    <t>13817921327</t>
+  </si>
+  <si>
+    <t>刘坤</t>
+  </si>
+  <si>
+    <t>13817921329</t>
+  </si>
+  <si>
+    <t>艾尼</t>
+  </si>
+  <si>
+    <t>13817921324</t>
+  </si>
+  <si>
+    <t>外科</t>
+  </si>
+  <si>
+    <t>医师</t>
+  </si>
+  <si>
+    <t>Simth</t>
+  </si>
+  <si>
+    <t>13917119628</t>
+  </si>
+  <si>
+    <t>传染科</t>
+  </si>
+  <si>
+    <t>主管护师</t>
+  </si>
+  <si>
     <t>郑惠斌</t>
   </si>
   <si>
-    <t>13817921334</t>
-  </si>
-  <si>
-    <t>外科</t>
-  </si>
-  <si>
-    <t>医师</t>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>hanah</t>
+  </si>
+  <si>
+    <t>1001</t>
   </si>
   <si>
     <t>lili</t>
   </si>
   <si>
-    <t>13917119648</t>
-  </si>
-  <si>
-    <t>传染科</t>
-  </si>
-  <si>
-    <t>主管护师</t>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>13817911221</t>
   </si>
 </sst>
 </file>
@@ -219,24 +261,122 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B9" t="s">
         <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
